--- a/BackTest/2020-01-14 BackTest SOC.xlsx
+++ b/BackTest/2020-01-14 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2623641.831832999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2606246.244632999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2606058.798332999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2614568.208232999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2614902.208232999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2614867.208232999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2657786.687833</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2651264.349632999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2691590.197933</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2703399.114033</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2703399.114033</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2703399.114033</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2703117.114033</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2706117.114033</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2705994.114033</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2714625.898633</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2711397.126033</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2711542.456033</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2708413.683433</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3163166.884833</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3273449.553633</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3346438.374333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3346438.374333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3375118.821833</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3375118.821833</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3374952.821833</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3375052.821833</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3374900.821833</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3374840.821833</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3375040.821833</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3374433.299333</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3374399.299333</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3385262.207932999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3385101.710132999</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3385151.710132999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3335026.743733</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3347808.265133</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3347031.265133</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3345798.265133</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3353741.566933</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3454862.488533</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3585230.580533</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3585230.580533</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3588885.438233</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3601001.737633</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3641338.326633</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3641238.326633</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3598495.690126829</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3643137.567726829</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3621769.509333</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3591588.774074891</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3581862.802274891</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3579625.856374891</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3576625.856374891</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3588980.942574892</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3925769.028774892</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4010935.732174892</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4081371.354174891</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4778312.952568363</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4778312.952568363</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4778312.952568363</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-4951823.238568364</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4951823.238568364</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5101793.238568364</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5101626.238568364</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-5100936.006368363</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-5237362.270668363</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-5321085.576268364</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-5883916.774985313</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-5881010.803385314</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-5881010.803385314</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5908945.170185314</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5895119.999185313</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5895119.999185313</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-7177270.028983944</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>14.25</v>
@@ -9134,11 +9134,9 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>14.25</v>
       </c>
@@ -9175,11 +9173,9 @@
         <v>-7707047.920398145</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>14.25</v>
       </c>
@@ -9216,7 +9212,7 @@
         <v>-7838542.579198145</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>14.24</v>
@@ -9257,7 +9253,7 @@
         <v>-5789569.003498145</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>14.2</v>
@@ -9961,11 +9957,9 @@
         <v>-2959190.595898145</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>14.25</v>
       </c>
@@ -10938,7 +10932,7 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
@@ -10946,11 +10940,11 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
-        <v>1.002017543859649</v>
+        <v>1</v>
       </c>
       <c r="M311" t="inlineStr"/>
     </row>
@@ -10980,8 +10974,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +11010,17 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +11049,17 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11076,11 +11088,17 @@
         <v>-3287245.903295358</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11112,8 +11130,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11145,8 +11169,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11178,8 +11208,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11211,8 +11247,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11244,8 +11286,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11277,8 +11325,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11310,8 +11364,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11343,8 +11403,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11373,15 +11439,17 @@
         <v>-3568750.014695358</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+        <v>14.25</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11410,17 +11478,15 @@
         <v>-3601400.101895358</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L325" t="n">
@@ -11451,13 +11517,11 @@
         <v>-3437497.945895358</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>14.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11492,13 +11556,11 @@
         <v>-3435165.344895358</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>14.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11533,13 +11595,11 @@
         <v>-3435165.344895358</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11574,13 +11634,11 @@
         <v>-3434893.577595358</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11615,13 +11673,11 @@
         <v>-3434893.577595358</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>14.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11660,7 +11716,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11695,13 +11751,11 @@
         <v>-3578006.545295358</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>14.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11740,7 +11794,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11779,7 +11833,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11818,7 +11872,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11857,7 +11911,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11896,7 +11950,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11931,13 +11985,11 @@
         <v>-4485448.773395359</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11972,13 +12024,11 @@
         <v>-4509934.150395359</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>13.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12013,13 +12063,11 @@
         <v>-4527964.150395359</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>13.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12054,13 +12102,11 @@
         <v>-4527964.150395359</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>13.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12095,13 +12141,11 @@
         <v>-4527964.150395359</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>13.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12136,13 +12180,11 @@
         <v>-4527964.150395359</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>13.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12177,13 +12219,11 @@
         <v>-4996608.006695359</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>13.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12218,13 +12258,11 @@
         <v>-5091010.985995359</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>13.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12259,13 +12297,11 @@
         <v>-5091010.985995359</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>13.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12300,13 +12336,11 @@
         <v>-5157729.939995359</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>13.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12341,13 +12375,11 @@
         <v>-5271563.638795359</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>13.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12382,13 +12414,11 @@
         <v>-5828893.253695359</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12423,13 +12453,11 @@
         <v>-5786091.220295359</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>13.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12464,13 +12492,11 @@
         <v>-5499073.162695359</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>13.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12505,13 +12531,11 @@
         <v>-5474916.787795359</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>13.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12546,13 +12570,11 @@
         <v>-5464574.728695359</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>13.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12587,13 +12609,13 @@
         <v>-5746969.492795359</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>13.34</v>
       </c>
       <c r="J354" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12628,13 +12650,13 @@
         <v>-5708547.53099536</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>13.2</v>
       </c>
       <c r="J355" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12669,13 +12691,13 @@
         <v>-5717063.43369536</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>13.83</v>
       </c>
       <c r="J356" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12710,11 +12732,13 @@
         <v>-5732477.88869536</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>13.55</v>
+      </c>
       <c r="J357" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12749,13 +12773,13 @@
         <v>-5732477.88869536</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>13.54</v>
       </c>
       <c r="J358" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12790,11 +12814,13 @@
         <v>-5735010.62949536</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>13.54</v>
+      </c>
       <c r="J359" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12829,13 +12855,13 @@
         <v>-5662207.977546414</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>13.49</v>
       </c>
       <c r="J360" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12870,13 +12896,11 @@
         <v>-5662320.528646414</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>13.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12911,13 +12935,13 @@
         <v>-5662320.528646414</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>13.59</v>
       </c>
       <c r="J362" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12952,13 +12976,13 @@
         <v>-5857783.968846414</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>13.59</v>
       </c>
       <c r="J363" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12993,13 +13017,13 @@
         <v>-5795432.036346414</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>13.2</v>
       </c>
       <c r="J364" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13034,13 +13058,13 @@
         <v>-5853983.036346414</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>13.59</v>
       </c>
       <c r="J365" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13075,13 +13099,13 @@
         <v>-5853983.036346414</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>13.55</v>
       </c>
       <c r="J366" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13116,13 +13140,13 @@
         <v>-5856418.836446414</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>13.55</v>
       </c>
       <c r="J367" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13157,13 +13181,13 @@
         <v>-5848265.349946414</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>13.4</v>
       </c>
       <c r="J368" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13198,13 +13222,13 @@
         <v>-4935949.965246414</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>13.5</v>
       </c>
       <c r="J369" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13239,13 +13263,11 @@
         <v>-4501097.170446414</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>13.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13284,7 +13306,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13319,13 +13341,11 @@
         <v>-4241681.40509447</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>13.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13364,7 +13384,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13399,13 +13419,11 @@
         <v>-4167130.73119447</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>14.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13444,7 +13462,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13483,7 +13501,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13522,7 +13540,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13561,7 +13579,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13600,7 +13618,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13639,7 +13657,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13678,7 +13696,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13717,7 +13735,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13756,7 +13774,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13795,7 +13813,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13830,11 +13848,13 @@
         <v>-8520851.468387142</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J385" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13869,13 +13889,13 @@
         <v>-8165463.395887142</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>14.01</v>
       </c>
       <c r="J386" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13914,7 +13934,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13949,13 +13969,13 @@
         <v>-7801213.127287142</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>13.56</v>
       </c>
       <c r="J388" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13990,11 +14010,13 @@
         <v>-8179993.892087142</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>13.65</v>
+      </c>
       <c r="J389" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14029,11 +14051,13 @@
         <v>-8050681.601987142</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>13.51</v>
+      </c>
       <c r="J390" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14068,11 +14092,13 @@
         <v>-7789339.540587142</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>13.99</v>
+      </c>
       <c r="J391" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14107,13 +14133,11 @@
         <v>-7879951.649287142</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14148,13 +14172,11 @@
         <v>-7813710.946087142</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14189,13 +14211,11 @@
         <v>-7674171.611170902</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14234,7 +14254,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14273,7 +14293,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14312,7 +14332,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14351,7 +14371,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14390,7 +14410,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14429,7 +14449,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14464,13 +14484,11 @@
         <v>-7729930.608470902</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>14.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14505,13 +14523,11 @@
         <v>-7731477.638170902</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>14.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14546,13 +14562,11 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>14.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14591,7 +14605,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14626,11 +14640,13 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>13.87</v>
+      </c>
       <c r="J405" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14669,7 +14685,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14708,7 +14724,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14747,7 +14763,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14782,13 +14798,11 @@
         <v>-7977464.863170902</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>13.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14823,13 +14837,11 @@
         <v>-7899000.079170902</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>13.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14864,13 +14876,11 @@
         <v>-8052098.706070902</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14905,13 +14915,13 @@
         <v>-7666272.561270902</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>13.92</v>
       </c>
       <c r="J412" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14946,13 +14956,13 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>13.93</v>
       </c>
       <c r="J413" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14987,13 +14997,13 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>13.94</v>
       </c>
       <c r="J414" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15028,11 +15038,13 @@
         <v>-7577121.706070902</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>13.94</v>
+      </c>
       <c r="J415" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15067,11 +15079,13 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>13.98</v>
+      </c>
       <c r="J416" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15106,13 +15120,11 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>14.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15151,7 +15163,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15190,7 +15202,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15229,7 +15241,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15268,7 +15280,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15307,7 +15319,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15346,7 +15358,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15385,7 +15397,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15424,7 +15436,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15463,7 +15475,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15502,7 +15514,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15541,7 +15553,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15580,7 +15592,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15619,7 +15631,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15658,7 +15670,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15697,7 +15709,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15732,13 +15744,11 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>14.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15773,13 +15783,11 @@
         <v>-7290253.012646635</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>14.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15814,13 +15822,11 @@
         <v>-7309000.576746635</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>14.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15855,13 +15861,11 @@
         <v>-7388217.427846635</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>14.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15896,13 +15900,11 @@
         <v>-7388182.427846635</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15937,13 +15939,11 @@
         <v>-7407993.427846635</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>14.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15978,13 +15978,11 @@
         <v>-7400420.230046635</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16019,13 +16017,11 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>14.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16060,13 +16056,11 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16101,13 +16095,11 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16142,13 +16134,13 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>14.26</v>
       </c>
       <c r="J443" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16183,13 +16175,11 @@
         <v>-7435092.384846634</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>14.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16224,13 +16214,13 @@
         <v>-7435057.384846634</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>14.12</v>
       </c>
       <c r="J445" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16265,13 +16255,11 @@
         <v>-7435264.606046634</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16306,13 +16294,11 @@
         <v>-7809126.267846634</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>14.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16347,13 +16333,11 @@
         <v>-7810552.894846634</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16388,13 +16372,13 @@
         <v>-7810516.894846634</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>14.1</v>
       </c>
       <c r="J449" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16429,13 +16413,13 @@
         <v>-7856803.768946634</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>14.2</v>
       </c>
       <c r="J450" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16470,13 +16454,13 @@
         <v>-7829617.721860818</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>13.91</v>
       </c>
       <c r="J451" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16511,13 +16495,13 @@
         <v>-7829617.721860818</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>14.1</v>
       </c>
       <c r="J452" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16552,11 +16536,13 @@
         <v>-7712302.690360818</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J453" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16591,11 +16577,13 @@
         <v>-7872385.177060818</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>14.11</v>
+      </c>
       <c r="J454" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16630,13 +16618,13 @@
         <v>-7875903.007560818</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>14.1</v>
       </c>
       <c r="J455" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16671,13 +16659,13 @@
         <v>-7724649.650760818</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>13.91</v>
       </c>
       <c r="J456" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16712,13 +16700,13 @@
         <v>-7724649.650760818</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>14.1</v>
       </c>
       <c r="J457" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16753,13 +16741,13 @@
         <v>-7724091.929160818</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>14.1</v>
       </c>
       <c r="J458" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16794,13 +16782,13 @@
         <v>-7509877.616360818</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>14.19</v>
       </c>
       <c r="J459" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16835,13 +16823,13 @@
         <v>-7510347.829760818</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>14.43</v>
       </c>
       <c r="J460" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16880,7 +16868,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16919,7 +16907,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16954,13 +16942,11 @@
         <v>-7489871.067660818</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16995,13 +16981,11 @@
         <v>-7450896.804360818</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>14.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17036,13 +17020,11 @@
         <v>-7452869.574360818</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17077,13 +17059,13 @@
         <v>-7432576.684660817</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>14.14</v>
       </c>
       <c r="J466" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17118,13 +17100,13 @@
         <v>-7439583.344060818</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>14.3</v>
       </c>
       <c r="J467" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17159,13 +17141,13 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>14.14</v>
       </c>
       <c r="J468" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17200,13 +17182,13 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>14.29</v>
       </c>
       <c r="J469" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17241,13 +17223,11 @@
         <v>-7778757.830060818</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>14.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17282,13 +17262,13 @@
         <v>-7771189.035260818</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>13.93</v>
       </c>
       <c r="J471" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17323,13 +17303,13 @@
         <v>-7983276.958260818</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>14.03</v>
       </c>
       <c r="J472" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17364,11 +17344,13 @@
         <v>-7779624.751960819</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>13.97</v>
+      </c>
       <c r="J473" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17403,13 +17385,13 @@
         <v>-7532516.045260819</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>13.98</v>
       </c>
       <c r="J474" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17444,13 +17426,13 @@
         <v>-7531102.829713115</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>14.06</v>
       </c>
       <c r="J475" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17489,7 +17471,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17528,7 +17510,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17563,11 +17545,13 @@
         <v>-7628538.904313115</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>13.98</v>
+      </c>
       <c r="J478" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17602,11 +17586,13 @@
         <v>-7562298.201113115</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>13.93</v>
+      </c>
       <c r="J479" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17641,11 +17627,13 @@
         <v>-7553609.463613115</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>13.94</v>
+      </c>
       <c r="J480" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17680,11 +17668,13 @@
         <v>-7690750.848813116</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>14.06</v>
+      </c>
       <c r="J481" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17719,11 +17709,13 @@
         <v>-7685679.793113115</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J482" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17758,11 +17750,13 @@
         <v>-7977044.645613115</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>14.06</v>
+      </c>
       <c r="J483" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17801,7 +17795,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17836,11 +17830,13 @@
         <v>-7896152.615013116</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>13.91</v>
+      </c>
       <c r="J485" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17875,13 +17871,11 @@
         <v>-7896446.930613116</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17920,7 +17914,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17959,7 +17953,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17998,7 +17992,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18037,7 +18031,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18076,7 +18070,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18115,7 +18109,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18154,7 +18148,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18193,7 +18187,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18232,7 +18226,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18271,7 +18265,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18306,13 +18300,11 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18351,7 +18343,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18386,13 +18378,11 @@
         <v>-7441603.890413117</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18427,13 +18417,11 @@
         <v>-7441218.137513117</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>13.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18468,13 +18456,11 @@
         <v>-7465407.648513117</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18509,13 +18495,11 @@
         <v>-7288480.124513117</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>13.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18550,13 +18534,11 @@
         <v>-7307833.305913117</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>14.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18591,13 +18573,11 @@
         <v>-7307797.305913117</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>13.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18632,13 +18612,11 @@
         <v>-7308445.839513117</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>14.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18673,13 +18651,11 @@
         <v>-7301452.45405764</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>13.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18714,13 +18690,11 @@
         <v>-7320681.552880155</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>14.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18755,13 +18729,11 @@
         <v>-7320645.552880155</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>13.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18796,13 +18768,11 @@
         <v>-7320645.552880155</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>14.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18837,13 +18807,11 @@
         <v>-7338380.268580155</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>14.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18878,13 +18846,11 @@
         <v>-7252313.100580155</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>13.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18923,7 +18889,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18962,7 +18928,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19001,7 +18967,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19040,7 +19006,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19079,7 +19045,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19118,7 +19084,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19157,7 +19123,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19196,7 +19162,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19231,13 +19197,11 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19272,13 +19236,11 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19313,13 +19275,11 @@
         <v>-7317442.003879745</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19354,13 +19314,11 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19395,13 +19353,11 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19436,13 +19392,11 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19477,13 +19431,11 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19518,13 +19470,11 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19559,13 +19509,11 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19600,13 +19548,11 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19641,13 +19587,11 @@
         <v>-7319512.504879745</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19682,13 +19626,11 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19723,13 +19665,11 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19764,13 +19704,11 @@
         <v>-7321560.783279745</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19805,13 +19743,11 @@
         <v>-7345852.596779745</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>14.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19846,13 +19782,11 @@
         <v>-7360993.569379745</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19887,13 +19821,11 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>14.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19928,13 +19860,11 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19969,13 +19899,11 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20010,13 +19938,11 @@
         <v>-7360339.756579745</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20051,13 +19977,11 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>14.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20092,13 +20016,11 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20133,13 +20055,11 @@
         <v>-6844393.805568397</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20174,13 +20094,11 @@
         <v>-7078345.42935705</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>14.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20215,13 +20133,11 @@
         <v>-7074133.37835705</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20256,13 +20172,11 @@
         <v>-7080585.41785705</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>14.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20297,13 +20211,11 @@
         <v>-7073152.10845705</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>14.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20338,13 +20250,11 @@
         <v>-7128556.46385705</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>14.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20379,13 +20289,11 @@
         <v>-7124368.80985705</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>14.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20420,13 +20328,11 @@
         <v>-7129647.83305705</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>14.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20461,13 +20367,11 @@
         <v>-6932864.106857049</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>14.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20502,13 +20406,11 @@
         <v>-6882153.94005705</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>14.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20543,13 +20445,11 @@
         <v>-6690163.89175705</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>14.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20584,13 +20484,11 @@
         <v>-6716560.861157049</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20625,13 +20523,11 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>14.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -20666,13 +20562,11 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>14.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -20707,13 +20601,11 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>14.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -20748,13 +20640,11 @@
         <v>-6746021.066857049</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>14.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20789,13 +20679,11 @@
         <v>-6812789.065657049</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20830,13 +20718,11 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>14.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20871,13 +20757,11 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20912,13 +20796,11 @@
         <v>-6813063.327257049</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20953,13 +20835,11 @@
         <v>-6821047.07105705</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>14.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20994,13 +20874,11 @@
         <v>-6848812.563557049</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>14.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21035,13 +20913,11 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21076,13 +20952,11 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21117,13 +20991,11 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21158,13 +21030,11 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21199,13 +21069,11 @@
         <v>-6830082.598955642</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21240,13 +21108,11 @@
         <v>-6461326.478555641</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>14.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21281,13 +21147,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="n">
-        <v>14.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21322,13 +21186,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="n">
-        <v>14.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21363,13 +21225,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>14.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21404,13 +21264,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>14.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21445,13 +21303,11 @@
         <v>-5999702.839890135</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>14.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21486,13 +21342,11 @@
         <v>-5876081.351490135</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>14.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21527,13 +21381,11 @@
         <v>-5897225.983290135</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -21568,13 +21420,11 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>14.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -21609,13 +21459,11 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>14.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -21650,13 +21498,11 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>14.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -21691,13 +21537,11 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>14.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -21732,13 +21576,11 @@
         <v>-5917261.983290135</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>14.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -21773,13 +21615,11 @@
         <v>-5881796.095990135</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>14.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -21814,13 +21654,11 @@
         <v>-5395745.905990135</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>14.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -21855,13 +21693,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>14.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21896,13 +21732,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>14.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21937,13 +21771,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>14.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21978,13 +21810,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>14.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22019,13 +21849,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>14.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22060,13 +21888,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>14.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22101,13 +21927,11 @@
         <v>-5371726.889990135</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>14.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22142,13 +21966,11 @@
         <v>-5493647.498490135</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>14.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22183,13 +22005,11 @@
         <v>-5488452.416990135</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>14.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22224,13 +22044,11 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>14.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22265,13 +22083,11 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>14.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22306,13 +22122,11 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>14.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22347,13 +22161,11 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>14.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22388,13 +22200,11 @@
         <v>-5698819.781590135</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>14.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22429,13 +22239,11 @@
         <v>-5649819.781590135</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>14.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22470,13 +22278,11 @@
         <v>-5604501.514890135</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="n">
-        <v>14.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22511,13 +22317,11 @@
         <v>-5625668.209990135</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>14.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22552,13 +22356,11 @@
         <v>-5648986.213890135</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>14.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22593,13 +22395,11 @@
         <v>-5629799.150490135</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>14.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -22634,13 +22434,11 @@
         <v>-5757599.252790135</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>14.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -22675,13 +22473,11 @@
         <v>-5729675.233890136</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>14.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -22716,13 +22512,11 @@
         <v>-5752372.665690136</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>14.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -22757,13 +22551,11 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>14.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -22798,19 +22590,19 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L607" t="n">
-        <v>1.019822695035461</v>
+        <v>1</v>
       </c>
       <c r="M607" t="inlineStr"/>
     </row>
@@ -22837,15 +22629,15 @@
         <v>-5786641.435190136</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -22876,10 +22668,12 @@
         <v>-5635986.372290135</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22913,12 +22707,12 @@
         <v>-5609353.837690135</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22952,12 +22746,12 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="J611" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22991,12 +22785,12 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="J612" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23030,12 +22824,12 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="J613" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23069,12 +22863,12 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="J614" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23108,12 +22902,12 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="J615" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23147,12 +22941,12 @@
         <v>-5720952.914690135</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="J616" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23186,12 +22980,12 @@
         <v>-5765773.468790135</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J617" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23225,12 +23019,14 @@
         <v>-5730833.454590135</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>14.29</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23264,12 +23060,14 @@
         <v>-5703624.274190135</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>14.34</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23303,12 +23101,14 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>14.35</v>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23342,12 +23142,12 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23381,12 +23181,12 @@
         <v>-5771065.326090136</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="J622" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23420,12 +23220,12 @@
         <v>-5760797.424490135</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="J623" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23462,7 +23262,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23499,7 +23301,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23536,7 +23340,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23573,7 +23379,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23610,7 +23418,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23647,7 +23457,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23684,7 +23496,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23718,12 +23532,12 @@
         <v>-5773480.965590136</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="J631" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23757,12 +23571,12 @@
         <v>-5791528.091590136</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="J632" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23799,7 +23613,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23836,7 +23652,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23870,16 +23688,20 @@
         <v>-5686669.777790136</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L635" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
       <c r="M635" t="inlineStr"/>
     </row>
     <row r="636">
@@ -23908,8 +23730,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23938,11 +23766,17 @@
         <v>-5705175.077790136</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23974,8 +23808,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24004,11 +23844,17 @@
         <v>-5794431.769390136</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24040,8 +23886,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24073,8 +23925,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24106,8 +23964,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24139,8 +24003,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24172,8 +24042,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24205,8 +24081,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24238,8 +24120,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24271,8 +24159,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24304,8 +24198,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24337,8 +24237,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24370,8 +24276,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24400,15 +24312,15 @@
         <v>-6187357.499190135</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L651" t="n">
@@ -24439,12 +24351,12 @@
         <v>-6094780.492690135</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24478,12 +24390,12 @@
         <v>-6120307.622490135</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24520,7 +24432,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24557,7 +24471,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24594,7 +24510,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24606,6 +24524,6 @@
       <c r="M656" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest SOC.xlsx
+++ b/BackTest/2020-01-14 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2623641.831832999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2606246.244632999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2606058.798332999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2614568.208232999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2614902.208232999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2614867.208232999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2708413.683433</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3385151.710132999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3335026.743733</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-5916672.942185314</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5993082.942585315</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5958236.967883945</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-6567832.992183944</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-6567032.992183944</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-6577033.301583944</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-6581533.301583944</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-6581583.301583944</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-6581633.301583944</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-6588912.754583944</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-6588877.754583944</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-6919027.984483943</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-7074774.820983944</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-7065055.068583944</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-7050020.068583944</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-7202003.339483944</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,14 +9097,10 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="J264" t="n">
-        <v>14.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9134,17 +9130,11 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9173,58 +9163,50 @@
         <v>-7707047.920398145</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K266" t="inlineStr">
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="C267" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="E267" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F267" t="n">
+        <v>131494.6588</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-7838542.579198145</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="C267" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D267" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="E267" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F267" t="n">
-        <v>131494.6588</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-7838542.579198145</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="J267" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9258,9 +9240,7 @@
       <c r="I268" t="n">
         <v>14.2</v>
       </c>
-      <c r="J268" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9294,12 +9274,10 @@
         <v>-2007860.534198145</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,12 +9311,10 @@
         <v>-2015852.650498145</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,12 +9348,10 @@
         <v>-2015645.919298145</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9411,12 +9385,10 @@
         <v>-2024080.287498145</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9450,12 +9422,10 @@
         <v>-2337573.339998146</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,12 +9459,10 @@
         <v>-2272224.839998146</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9528,12 +9496,10 @@
         <v>-2407083.583698146</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,12 +9533,10 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,12 +9570,10 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9645,20 +9607,16 @@
         <v>-2376634.750698145</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -9684,17 +9642,11 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9723,17 +9675,11 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9762,17 +9708,11 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9801,17 +9741,11 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9840,17 +9774,11 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9879,17 +9807,11 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9918,17 +9840,11 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9960,14 +9876,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9999,14 +9909,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10038,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10077,14 +9975,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10113,17 +10005,11 @@
         <v>-3035829.255498145</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10155,14 +10041,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10191,17 +10071,11 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10230,17 +10104,11 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10269,17 +10137,11 @@
         <v>-3064361.397798146</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10308,17 +10170,11 @@
         <v>-3060686.374498146</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10347,17 +10203,11 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10386,17 +10236,11 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10425,17 +10269,11 @@
         <v>-3140807.439298146</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10467,14 +10305,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10506,14 +10338,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10545,14 +10371,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10584,14 +10404,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10623,14 +10437,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10662,14 +10470,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10701,14 +10503,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10737,17 +10533,11 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10776,17 +10566,11 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10815,17 +10599,11 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10854,17 +10632,11 @@
         <v>-3124897.226495358</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10893,17 +10665,11 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10935,14 +10701,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10974,14 +10734,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11013,14 +10767,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11052,14 +10800,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11091,14 +10833,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11130,14 +10866,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11169,14 +10899,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11208,14 +10932,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11247,14 +10965,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11286,14 +10998,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11325,14 +11031,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11364,14 +11064,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11403,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11442,14 +11130,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11481,14 +11163,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11520,14 +11196,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11559,14 +11229,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11598,14 +11262,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11637,14 +11295,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11676,14 +11328,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11715,14 +11361,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11754,14 +11394,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11793,14 +11427,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11832,14 +11460,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11871,14 +11493,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11910,14 +11526,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11949,14 +11559,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11988,14 +11592,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12027,14 +11625,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12066,14 +11658,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12105,14 +11691,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12144,14 +11724,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12183,14 +11757,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12222,14 +11790,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12261,14 +11823,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12300,14 +11856,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12339,14 +11889,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12378,14 +11922,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12417,14 +11955,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12456,14 +11988,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12495,14 +12021,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12534,14 +12054,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12573,14 +12087,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12609,19 +12117,11 @@
         <v>-5746969.492795359</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="J354" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12650,19 +12150,11 @@
         <v>-5708547.53099536</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J355" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12691,19 +12183,11 @@
         <v>-5717063.43369536</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="J356" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12732,19 +12216,11 @@
         <v>-5732477.88869536</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="J357" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12773,19 +12249,11 @@
         <v>-5732477.88869536</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="J358" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12814,19 +12282,11 @@
         <v>-5735010.62949536</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="J359" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12855,19 +12315,11 @@
         <v>-5662207.977546414</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="J360" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12899,14 +12351,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12935,19 +12381,11 @@
         <v>-5662320.528646414</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="J362" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12976,19 +12414,11 @@
         <v>-5857783.968846414</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="J363" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13017,19 +12447,11 @@
         <v>-5795432.036346414</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J364" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13058,19 +12480,11 @@
         <v>-5853983.036346414</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="J365" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13099,19 +12513,11 @@
         <v>-5853983.036346414</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="J366" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13140,19 +12546,11 @@
         <v>-5856418.836446414</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="J367" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13181,19 +12579,11 @@
         <v>-5848265.349946414</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J368" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13222,19 +12612,11 @@
         <v>-4935949.965246414</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J369" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13266,14 +12648,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13305,14 +12681,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13344,14 +12714,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13383,14 +12747,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13422,14 +12780,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13461,14 +12813,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13500,14 +12846,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13539,14 +12879,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13578,14 +12912,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13617,14 +12945,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13656,14 +12978,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13695,14 +13011,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13734,14 +13044,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13773,14 +13077,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13812,14 +13110,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13848,19 +13140,11 @@
         <v>-8520851.468387142</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J385" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13889,19 +13173,11 @@
         <v>-8165463.395887142</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="J386" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13933,14 +13209,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13969,19 +13239,11 @@
         <v>-7801213.127287142</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="J388" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14010,19 +13272,11 @@
         <v>-8179993.892087142</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="J389" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14051,19 +13305,11 @@
         <v>-8050681.601987142</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="J390" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14092,19 +13338,11 @@
         <v>-7789339.540587142</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="J391" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14136,14 +13374,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14175,14 +13407,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14214,14 +13440,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14253,14 +13473,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14292,14 +13506,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14331,14 +13539,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14370,14 +13572,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14406,17 +13602,11 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14445,17 +13635,11 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14484,17 +13668,11 @@
         <v>-7729930.608470902</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14523,17 +13701,11 @@
         <v>-7731477.638170902</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14562,17 +13734,11 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14601,17 +13767,11 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14640,19 +13800,11 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="J405" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14681,17 +13833,11 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14720,17 +13866,11 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14759,17 +13899,11 @@
         <v>-8062404.254270902</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14798,17 +13932,11 @@
         <v>-7977464.863170902</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14837,17 +13965,11 @@
         <v>-7899000.079170902</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14876,17 +13998,11 @@
         <v>-8052098.706070902</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14915,19 +14031,11 @@
         <v>-7666272.561270902</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="J412" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14956,19 +14064,11 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="J413" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14997,19 +14097,11 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="J414" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15038,19 +14130,11 @@
         <v>-7577121.706070902</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="J415" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15079,19 +14163,11 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="J416" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15120,17 +14196,11 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15159,17 +14229,11 @@
         <v>-7532937.944970902</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15201,14 +14265,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15240,14 +14298,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15279,14 +14331,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15318,14 +14364,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15357,14 +14397,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15393,17 +14427,11 @@
         <v>-7427596.521370902</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15435,14 +14463,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15474,14 +14496,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15513,14 +14529,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15552,14 +14562,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15588,17 +14592,11 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15627,17 +14625,11 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15666,17 +14658,11 @@
         <v>-7260972.762446635</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15705,17 +14691,11 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15744,17 +14724,11 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15783,17 +14757,11 @@
         <v>-7290253.012646635</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15822,17 +14790,11 @@
         <v>-7309000.576746635</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15861,17 +14823,11 @@
         <v>-7388217.427846635</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15900,17 +14856,11 @@
         <v>-7388182.427846635</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15939,17 +14889,11 @@
         <v>-7407993.427846635</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15978,17 +14922,11 @@
         <v>-7400420.230046635</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16017,17 +14955,11 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16056,17 +14988,11 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16095,17 +15021,11 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16134,19 +15054,11 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="J443" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16175,17 +15087,11 @@
         <v>-7435092.384846634</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16214,19 +15120,11 @@
         <v>-7435057.384846634</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="J445" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16255,17 +15153,11 @@
         <v>-7435264.606046634</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16294,17 +15186,11 @@
         <v>-7809126.267846634</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16333,17 +15219,11 @@
         <v>-7810552.894846634</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16372,19 +15252,11 @@
         <v>-7810516.894846634</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J449" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16413,19 +15285,11 @@
         <v>-7856803.768946634</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J450" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16459,12 +15323,10 @@
       <c r="I451" t="n">
         <v>13.91</v>
       </c>
-      <c r="J451" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -16500,9 +15362,7 @@
       <c r="I452" t="n">
         <v>14.1</v>
       </c>
-      <c r="J452" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16536,14 +15396,10 @@
         <v>-7712302.690360818</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J453" t="n">
-        <v>14.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16577,14 +15433,10 @@
         <v>-7872385.177060818</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="J454" t="n">
-        <v>14.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16623,9 +15475,7 @@
       <c r="I455" t="n">
         <v>14.1</v>
       </c>
-      <c r="J455" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16664,9 +15514,7 @@
       <c r="I456" t="n">
         <v>13.91</v>
       </c>
-      <c r="J456" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16705,9 +15553,7 @@
       <c r="I457" t="n">
         <v>14.1</v>
       </c>
-      <c r="J457" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16741,14 +15587,10 @@
         <v>-7724091.929160818</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J458" t="n">
-        <v>14.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16782,14 +15624,10 @@
         <v>-7509877.616360818</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="J459" t="n">
-        <v>14.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,14 +15661,10 @@
         <v>-7510347.829760818</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="J460" t="n">
-        <v>14.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16864,12 +15698,10 @@
         <v>-7514893.558460818</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16903,20 +15735,16 @@
         <v>-7517871.067660818</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="inlineStr"/>
     </row>
     <row r="463">
@@ -16942,17 +15770,11 @@
         <v>-7489871.067660818</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16981,17 +15803,11 @@
         <v>-7450896.804360818</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17020,17 +15836,11 @@
         <v>-7452869.574360818</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17059,19 +15869,11 @@
         <v>-7432576.684660817</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="J466" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17100,19 +15902,11 @@
         <v>-7439583.344060818</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J467" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17141,19 +15935,11 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="J468" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17182,19 +15968,11 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="J469" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +16004,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17262,19 +16034,11 @@
         <v>-7771189.035260818</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="J471" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17308,12 +16072,10 @@
       <c r="I472" t="n">
         <v>14.03</v>
       </c>
-      <c r="J472" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -17344,14 +16106,10 @@
         <v>-7779624.751960819</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="J473" t="n">
-        <v>14.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17390,9 +16148,7 @@
       <c r="I474" t="n">
         <v>13.98</v>
       </c>
-      <c r="J474" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17431,9 +16187,7 @@
       <c r="I475" t="n">
         <v>14.06</v>
       </c>
-      <c r="J475" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17470,9 +16224,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17506,12 +16258,12 @@
         <v>-7547930.097813115</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17550,9 +16302,7 @@
       <c r="I478" t="n">
         <v>13.98</v>
       </c>
-      <c r="J478" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17591,9 +16341,7 @@
       <c r="I479" t="n">
         <v>13.93</v>
       </c>
-      <c r="J479" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17632,9 +16380,7 @@
       <c r="I480" t="n">
         <v>13.94</v>
       </c>
-      <c r="J480" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17673,9 +16419,7 @@
       <c r="I481" t="n">
         <v>14.06</v>
       </c>
-      <c r="J481" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17714,9 +16458,7 @@
       <c r="I482" t="n">
         <v>13.9</v>
       </c>
-      <c r="J482" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,9 +16497,7 @@
       <c r="I483" t="n">
         <v>14.06</v>
       </c>
-      <c r="J483" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,12 +16531,12 @@
         <v>-7979546.748413116</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17835,9 +16575,7 @@
       <c r="I485" t="n">
         <v>13.91</v>
       </c>
-      <c r="J485" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17871,12 +16609,12 @@
         <v>-7896446.930613116</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17910,12 +16648,12 @@
         <v>-7931769.389313117</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17949,12 +16687,12 @@
         <v>-7899203.735413116</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17988,12 +16726,12 @@
         <v>-7993523.890813116</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18027,12 +16765,12 @@
         <v>-7297398.549613116</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18069,9 +16807,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18105,12 +16841,12 @@
         <v>-7500886.343313117</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18144,12 +16880,12 @@
         <v>-7500672.510513117</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18183,12 +16919,12 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18225,9 +16961,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18264,9 +16998,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18303,9 +17035,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,9 +17072,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18381,9 +17109,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18417,12 +17143,12 @@
         <v>-7441218.137513117</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18456,12 +17182,12 @@
         <v>-7465407.648513117</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18495,12 +17221,12 @@
         <v>-7288480.124513117</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18534,12 +17260,12 @@
         <v>-7307833.305913117</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18573,12 +17299,12 @@
         <v>-7307797.305913117</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18615,9 +17341,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18651,12 +17375,12 @@
         <v>-7301452.45405764</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18690,12 +17414,12 @@
         <v>-7320681.552880155</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18729,12 +17453,12 @@
         <v>-7320645.552880155</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18768,12 +17492,12 @@
         <v>-7320645.552880155</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18807,12 +17531,12 @@
         <v>-7338380.268580155</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18846,12 +17570,12 @@
         <v>-7252313.100580155</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18885,12 +17609,12 @@
         <v>-7252313.100580155</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>14.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>14</v>
+      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18927,9 +17651,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18966,9 +17688,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19005,9 +17725,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19044,9 +17762,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19083,9 +17799,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19122,9 +17836,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19161,9 +17873,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19200,9 +17910,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19239,9 +17947,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19278,9 +17984,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19317,9 +18021,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19356,9 +18058,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19395,9 +18095,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19434,9 +18132,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19473,9 +18169,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19512,9 +18206,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19551,9 +18243,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19590,9 +18280,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19629,9 +18317,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19668,9 +18354,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19707,9 +18391,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19746,9 +18428,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19785,9 +18465,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19824,9 +18502,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19863,9 +18539,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19902,9 +18576,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19941,9 +18613,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19980,9 +18650,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20019,9 +18687,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20058,9 +18724,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20097,9 +18761,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20133,20 +18795,16 @@
         <v>-7074133.37835705</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
@@ -20172,17 +18830,11 @@
         <v>-7080585.41785705</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20211,17 +18863,11 @@
         <v>-7073152.10845705</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20250,17 +18896,11 @@
         <v>-7128556.46385705</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20289,17 +18929,11 @@
         <v>-7124368.80985705</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20328,17 +18962,11 @@
         <v>-7129647.83305705</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20367,17 +18995,11 @@
         <v>-6932864.106857049</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20406,17 +19028,11 @@
         <v>-6882153.94005705</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20445,17 +19061,11 @@
         <v>-6690163.89175705</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20484,17 +19094,11 @@
         <v>-6716560.861157049</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20523,17 +19127,11 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20562,17 +19160,11 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20601,17 +19193,11 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20640,17 +19226,11 @@
         <v>-6746021.066857049</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20682,14 +19262,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20721,14 +19295,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20760,14 +19328,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20799,14 +19361,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20838,14 +19394,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20877,14 +19427,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20916,14 +19460,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20955,14 +19493,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20994,14 +19526,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21033,14 +19559,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21072,14 +19592,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21111,14 +19625,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21147,17 +19655,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21186,17 +19688,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21225,17 +19721,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21264,17 +19754,11 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21303,17 +19787,11 @@
         <v>-5999702.839890135</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21342,17 +19820,11 @@
         <v>-5876081.351490135</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21381,17 +19853,11 @@
         <v>-5897225.983290135</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21420,17 +19886,11 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21459,17 +19919,11 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21498,17 +19952,11 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21537,17 +19985,11 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21576,17 +20018,11 @@
         <v>-5917261.983290135</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21615,17 +20051,11 @@
         <v>-5881796.095990135</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21654,17 +20084,11 @@
         <v>-5395745.905990135</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21693,17 +20117,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21732,17 +20150,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21771,17 +20183,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21810,17 +20216,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21849,17 +20249,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21888,17 +20282,11 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21927,17 +20315,11 @@
         <v>-5371726.889990135</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21966,17 +20348,11 @@
         <v>-5493647.498490135</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22005,17 +20381,11 @@
         <v>-5488452.416990135</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22044,17 +20414,11 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22083,17 +20447,11 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22122,17 +20480,11 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22161,17 +20513,11 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22200,17 +20546,11 @@
         <v>-5698819.781590135</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22239,17 +20579,11 @@
         <v>-5649819.781590135</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22278,17 +20612,11 @@
         <v>-5604501.514890135</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22317,17 +20645,11 @@
         <v>-5625668.209990135</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22356,17 +20678,11 @@
         <v>-5648986.213890135</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22395,17 +20711,11 @@
         <v>-5629799.150490135</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22434,17 +20744,11 @@
         <v>-5757599.252790135</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22473,17 +20777,11 @@
         <v>-5729675.233890136</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22512,17 +20810,11 @@
         <v>-5752372.665690136</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22551,17 +20843,11 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22590,17 +20876,11 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22629,17 +20909,11 @@
         <v>-5786641.435190136</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22668,17 +20942,11 @@
         <v>-5635986.372290135</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22707,17 +20975,11 @@
         <v>-5609353.837690135</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22746,17 +21008,11 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22785,17 +21041,11 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22824,17 +21074,11 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22863,17 +21107,11 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22902,17 +21140,11 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22941,17 +21173,11 @@
         <v>-5720952.914690135</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22980,17 +21206,11 @@
         <v>-5765773.468790135</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23019,19 +21239,11 @@
         <v>-5730833.454590135</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="J618" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23060,19 +21272,11 @@
         <v>-5703624.274190135</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="J619" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23101,19 +21305,11 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="J620" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23142,17 +21338,11 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23181,17 +21371,11 @@
         <v>-5771065.326090136</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23220,17 +21404,11 @@
         <v>-5760797.424490135</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23259,17 +21437,11 @@
         <v>-5776280.432590135</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23298,17 +21470,11 @@
         <v>-5749975.359090135</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23337,17 +21503,11 @@
         <v>-5733050.828790136</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23376,17 +21536,11 @@
         <v>-5766419.546990136</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23415,17 +21569,11 @@
         <v>-5817599.223890136</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23454,17 +21602,11 @@
         <v>-5805431.792490136</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23493,17 +21635,11 @@
         <v>-5790187.149390136</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23532,17 +21668,11 @@
         <v>-5773480.965590136</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23571,17 +21701,11 @@
         <v>-5791528.091590136</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23613,14 +21737,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23649,17 +21767,11 @@
         <v>-5812081.580290136</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23688,17 +21800,11 @@
         <v>-5686669.777790136</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23727,17 +21833,11 @@
         <v>-5740167.541090135</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23766,17 +21866,11 @@
         <v>-5705175.077790136</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23805,17 +21899,11 @@
         <v>-5749910.946190136</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23847,14 +21935,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23886,14 +21968,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23925,14 +22001,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23964,14 +22034,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24003,14 +22067,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24042,14 +22100,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24081,14 +22133,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24120,14 +22166,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24159,14 +22199,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24198,14 +22232,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24237,14 +22265,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24276,14 +22298,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24315,14 +22331,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24354,14 +22364,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24393,14 +22397,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24432,14 +22430,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24471,14 +22463,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24510,20 +22496,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
       <c r="M656" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest SOC.xlsx
+++ b/BackTest/2020-01-14 BackTest SOC.xlsx
@@ -517,7 +517,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2606246.244632999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2606058.798332999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2614568.208232999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2614902.208232999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2614867.208232999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2706117.114033</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2705994.114033</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2714625.898633</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2711397.126033</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2711542.456033</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2708413.683433</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3273449.553633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3375118.821833</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3375118.821833</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3374952.821833</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3375052.821833</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3374900.821833</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3374840.821833</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3375040.821833</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3374433.299333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3374399.299333</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3385262.207932999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3385101.710132999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3385151.710132999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3273222.537333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3283222.537333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3309901.483233</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3289901.483233</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3339311.113832999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3335026.743733</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3347808.265133</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3347031.265133</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3346803.265133</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3346803.265133</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3346803.265133</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3345798.265133</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3345898.265133</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3345898.265133</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3359456.786532999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3358002.981633</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3356649.176733</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3355295.371833</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3353741.566933</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3454862.488533</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3585230.580533</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3585230.580533</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3588885.438233</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3587039.720533</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3601101.737633</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3601001.737633</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3601001.737633</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3650927.336033</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3650927.336033</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3650927.336033</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3597881.330633</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3641338.326633</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3641238.326633</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3598495.690126829</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3643137.567726829</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3621769.509333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3591588.774074891</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3581862.802274891</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3579625.856374891</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3576625.856374891</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3588980.942574892</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3925769.028774892</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4010935.732174892</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4081371.354174891</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4603637.875474892</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4603637.875474892</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4623837.875474892</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-5916672.942185314</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5993082.942585315</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5958236.967883945</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-6567832.992183944</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-6567032.992183944</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-6577033.301583944</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-6581533.301583944</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-6581583.301583944</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-6581633.301583944</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-6588912.754583944</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-6588877.754583944</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-6919027.984483943</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-7074774.820983944</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-7065055.068583944</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-7050020.068583944</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-7202003.339483944</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9031,10 +9031,14 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J262" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
@@ -9064,11 +9068,19 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J263" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9109,19 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J264" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,10 +9150,14 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J265" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
@@ -9163,11 +9187,19 @@
         <v>-7707047.920398145</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J266" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9201,10 +9233,12 @@
       <c r="I267" t="n">
         <v>14.24</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9240,7 +9274,9 @@
       <c r="I268" t="n">
         <v>14.2</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9274,10 +9310,14 @@
         <v>-2007860.534198145</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J269" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,10 +9351,12 @@
         <v>-2015852.650498145</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9348,10 +9390,12 @@
         <v>-2015645.919298145</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9385,10 +9429,12 @@
         <v>-2024080.287498145</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9422,10 +9468,12 @@
         <v>-2337573.339998146</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,10 +9507,12 @@
         <v>-2272224.839998146</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,10 +9546,12 @@
         <v>-2407083.583698146</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,10 +9585,12 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9570,10 +9624,12 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9607,16 +9663,20 @@
         <v>-2376634.750698145</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L278" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
       <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -9642,11 +9702,17 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9675,11 +9741,17 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9708,11 +9780,17 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9741,11 +9819,17 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9774,11 +9858,17 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9807,11 +9897,17 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9840,11 +9936,17 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9876,8 +9978,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9909,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9942,8 +10056,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9975,8 +10095,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10005,11 +10131,17 @@
         <v>-3035829.255498145</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10041,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10071,11 +10209,17 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10104,11 +10248,17 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10137,11 +10287,17 @@
         <v>-3064361.397798146</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10170,11 +10326,17 @@
         <v>-3060686.374498146</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +10365,17 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10236,11 +10404,17 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10269,11 +10443,17 @@
         <v>-3140807.439298146</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10305,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10338,8 +10524,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10371,8 +10563,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10404,8 +10602,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10437,8 +10641,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10470,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10503,8 +10719,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10533,11 +10755,17 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10566,11 +10794,17 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10599,11 +10833,17 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10632,11 +10872,17 @@
         <v>-3124897.226495358</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10665,11 +10911,17 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10701,8 +10953,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10734,8 +10992,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10767,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10800,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10833,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10866,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10899,8 +11187,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10932,8 +11226,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10965,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10998,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11031,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11064,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11421,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11130,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11163,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11196,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11229,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11262,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11295,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11328,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11361,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11394,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11427,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11460,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11493,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11526,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11559,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11592,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11625,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11658,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11691,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11724,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11757,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11790,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11823,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11856,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11889,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11922,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11955,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11988,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12021,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12054,8 +12552,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12087,8 +12591,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12120,8 +12630,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12153,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12186,8 +12708,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12219,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12252,8 +12786,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12285,8 +12825,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12318,8 +12864,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12351,8 +12903,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12384,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12417,8 +12981,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12450,8 +13020,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12483,8 +13059,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12516,8 +13098,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12549,8 +13137,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12582,8 +13176,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12615,8 +13215,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12648,8 +13254,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12681,8 +13293,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12714,8 +13332,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12747,8 +13371,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12780,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12813,8 +13449,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12846,8 +13488,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12879,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12912,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12945,8 +13605,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12978,8 +13644,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13011,8 +13683,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13044,8 +13722,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13077,8 +13761,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13110,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13143,8 +13839,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13176,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13209,8 +13917,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13242,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13275,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13308,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13341,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13374,8 +14112,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13407,8 +14151,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13440,8 +14190,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13473,8 +14229,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13506,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13539,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13572,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13602,11 +14382,17 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13635,11 +14421,17 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13668,11 +14460,17 @@
         <v>-7729930.608470902</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13701,11 +14499,19 @@
         <v>-7731477.638170902</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="J402" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13734,11 +14540,19 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="J403" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13767,11 +14581,19 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="J404" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13800,11 +14622,19 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="J405" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13833,11 +14663,19 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J406" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13866,11 +14704,19 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J407" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13899,11 +14745,19 @@
         <v>-8062404.254270902</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J408" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13932,11 +14786,19 @@
         <v>-7977464.863170902</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="J409" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13965,11 +14827,19 @@
         <v>-7899000.079170902</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="J410" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13998,11 +14868,19 @@
         <v>-8052098.706070902</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J411" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14031,11 +14909,19 @@
         <v>-7666272.561270902</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="J412" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14064,11 +14950,19 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="J413" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14097,11 +14991,19 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="J414" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14130,11 +15032,19 @@
         <v>-7577121.706070902</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="J415" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14163,11 +15073,19 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="J416" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14196,11 +15114,19 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J417" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14229,11 +15155,19 @@
         <v>-7532937.944970902</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="J418" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14262,11 +15196,19 @@
         <v>-7509980.950670902</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="J419" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14295,11 +15237,19 @@
         <v>-7475027.950170902</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="J420" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14331,8 +15281,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14364,8 +15320,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14397,8 +15359,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14427,11 +15395,19 @@
         <v>-7427596.521370902</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J424" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14463,8 +15439,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14496,8 +15478,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14529,8 +15517,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14562,8 +15556,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14592,11 +15592,17 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14625,11 +15631,17 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14658,11 +15670,17 @@
         <v>-7260972.762446635</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14691,11 +15709,19 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="J432" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14724,11 +15750,19 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="J433" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +15791,19 @@
         <v>-7290253.012646635</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="J434" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14790,11 +15832,19 @@
         <v>-7309000.576746635</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J435" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14823,11 +15873,19 @@
         <v>-7388217.427846635</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J436" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14856,11 +15914,19 @@
         <v>-7388182.427846635</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J437" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14889,11 +15955,19 @@
         <v>-7407993.427846635</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J438" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14922,11 +15996,19 @@
         <v>-7400420.230046635</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J439" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14955,11 +16037,19 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J440" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14988,11 +16078,19 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J441" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15021,11 +16119,19 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J442" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +16160,19 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J443" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15087,11 +16201,19 @@
         <v>-7435092.384846634</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J444" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15120,11 +16242,19 @@
         <v>-7435057.384846634</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="J445" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15153,11 +16283,19 @@
         <v>-7435264.606046634</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J446" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15186,11 +16324,19 @@
         <v>-7809126.267846634</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="J447" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15219,11 +16365,19 @@
         <v>-7810552.894846634</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J448" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15252,11 +16406,19 @@
         <v>-7810516.894846634</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J449" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15285,11 +16447,19 @@
         <v>-7856803.768946634</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J450" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15323,10 +16493,12 @@
       <c r="I451" t="n">
         <v>13.91</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15362,7 +16534,9 @@
       <c r="I452" t="n">
         <v>14.1</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,10 +16570,14 @@
         <v>-7712302.690360818</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J453" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15433,10 +16611,14 @@
         <v>-7872385.177060818</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="J454" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15475,7 +16657,9 @@
       <c r="I455" t="n">
         <v>14.1</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15514,7 +16698,9 @@
       <c r="I456" t="n">
         <v>13.91</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15553,7 +16739,9 @@
       <c r="I457" t="n">
         <v>14.1</v>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15587,10 +16775,14 @@
         <v>-7724091.929160818</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J458" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15624,10 +16816,14 @@
         <v>-7509877.616360818</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="J459" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15661,10 +16857,14 @@
         <v>-7510347.829760818</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="J460" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15698,10 +16898,14 @@
         <v>-7514893.558460818</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="J461" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,16 +16939,22 @@
         <v>-7517871.067660818</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J462" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L462" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
       <c r="M462" t="inlineStr"/>
     </row>
     <row r="463">
@@ -15770,11 +16980,19 @@
         <v>-7489871.067660818</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J463" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +17021,19 @@
         <v>-7450896.804360818</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="J464" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15836,11 +17062,19 @@
         <v>-7452869.574360818</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J465" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15869,11 +17103,19 @@
         <v>-7432576.684660817</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="J466" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15902,11 +17144,19 @@
         <v>-7439583.344060818</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J467" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15935,11 +17185,19 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="J468" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15968,11 +17226,19 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="J469" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16001,11 +17267,19 @@
         <v>-7778757.830060818</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="J470" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16034,11 +17308,19 @@
         <v>-7771189.035260818</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="J471" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16072,10 +17354,12 @@
       <c r="I472" t="n">
         <v>14.03</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -16106,10 +17390,14 @@
         <v>-7779624.751960819</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="J473" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16148,7 +17436,9 @@
       <c r="I474" t="n">
         <v>13.98</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,7 +17477,9 @@
       <c r="I475" t="n">
         <v>14.06</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16221,10 +17513,14 @@
         <v>-7535205.659813115</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="J476" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16263,7 +17559,9 @@
       <c r="I477" t="n">
         <v>14.01</v>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16302,7 +17600,9 @@
       <c r="I478" t="n">
         <v>13.98</v>
       </c>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16341,7 +17641,9 @@
       <c r="I479" t="n">
         <v>13.93</v>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16380,7 +17682,9 @@
       <c r="I480" t="n">
         <v>13.94</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16419,7 +17723,9 @@
       <c r="I481" t="n">
         <v>14.06</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16458,7 +17764,9 @@
       <c r="I482" t="n">
         <v>13.9</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16497,7 +17805,9 @@
       <c r="I483" t="n">
         <v>14.06</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16536,7 +17846,9 @@
       <c r="I484" t="n">
         <v>14.05</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16575,7 +17887,9 @@
       <c r="I485" t="n">
         <v>13.91</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16614,7 +17928,9 @@
       <c r="I486" t="n">
         <v>14.05</v>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16653,7 +17969,9 @@
       <c r="I487" t="n">
         <v>14.04</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16692,7 +18010,9 @@
       <c r="I488" t="n">
         <v>13.93</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16731,7 +18051,9 @@
       <c r="I489" t="n">
         <v>14.04</v>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16770,7 +18092,9 @@
       <c r="I490" t="n">
         <v>13.93</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16804,10 +18128,14 @@
         <v>-7350177.787513116</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="J491" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,7 +18174,9 @@
       <c r="I492" t="n">
         <v>13.91</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16885,7 +18215,9 @@
       <c r="I493" t="n">
         <v>13.88</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16924,7 +18256,9 @@
       <c r="I494" t="n">
         <v>13.99</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16958,10 +18292,14 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>14</v>
+      </c>
+      <c r="J495" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16995,10 +18333,14 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>14</v>
+      </c>
+      <c r="J496" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17032,10 +18374,14 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>14</v>
+      </c>
+      <c r="J497" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17069,10 +18415,14 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>14</v>
+      </c>
+      <c r="J498" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17106,10 +18456,14 @@
         <v>-7441603.890413117</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>14</v>
+      </c>
+      <c r="J499" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17148,7 +18502,9 @@
       <c r="I500" t="n">
         <v>13.89</v>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17187,7 +18543,9 @@
       <c r="I501" t="n">
         <v>13.9</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17226,7 +18584,9 @@
       <c r="I502" t="n">
         <v>13.88</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17265,7 +18625,9 @@
       <c r="I503" t="n">
         <v>14.02</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17304,7 +18666,9 @@
       <c r="I504" t="n">
         <v>13.91</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17338,10 +18702,14 @@
         <v>-7308445.839513117</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="J505" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,7 +18748,9 @@
       <c r="I506" t="n">
         <v>13.92</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,7 +18789,9 @@
       <c r="I507" t="n">
         <v>14.06</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,7 +18830,9 @@
       <c r="I508" t="n">
         <v>13.93</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,7 +18871,9 @@
       <c r="I509" t="n">
         <v>14.07</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17536,7 +18912,9 @@
       <c r="I510" t="n">
         <v>14.07</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17575,7 +18953,9 @@
       <c r="I511" t="n">
         <v>13.93</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17614,7 +18994,9 @@
       <c r="I512" t="n">
         <v>14</v>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17648,10 +19030,14 @@
         <v>-7190358.26369415</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>14</v>
+      </c>
+      <c r="J513" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17685,10 +19071,14 @@
         <v>-7134603.916616445</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="J514" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17722,10 +19112,14 @@
         <v>-7134603.916616445</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J515" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17759,10 +19153,14 @@
         <v>-7110063.45351946</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J516" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17796,10 +19194,14 @@
         <v>-7114023.46321946</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="J517" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17833,10 +19235,14 @@
         <v>-7331905.980519461</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="J518" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17870,10 +19276,14 @@
         <v>-7318914.49271946</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="J519" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17907,10 +19317,14 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J520" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17944,10 +19358,14 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J521" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17981,10 +19399,14 @@
         <v>-7317442.003879745</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J522" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18018,10 +19440,14 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J523" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18055,10 +19481,14 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J524" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18092,10 +19522,14 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J525" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18129,10 +19563,14 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J526" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18166,10 +19604,14 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J527" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18203,10 +19645,14 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J528" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18240,10 +19686,14 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J529" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18277,10 +19727,14 @@
         <v>-7319512.504879745</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J530" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18314,10 +19768,14 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J531" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18351,10 +19809,14 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J532" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18388,10 +19850,14 @@
         <v>-7321560.783279745</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18425,10 +19891,14 @@
         <v>-7345852.596779745</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="J534" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18462,10 +19932,14 @@
         <v>-7360993.569379745</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J535" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18499,10 +19973,14 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="J536" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18536,10 +20014,14 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J537" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18573,10 +20055,14 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J538" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,10 +20096,14 @@
         <v>-7360339.756579745</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J539" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18647,10 +20137,14 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="J540" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18684,10 +20178,14 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J541" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18721,10 +20219,14 @@
         <v>-6844393.805568397</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J542" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18758,10 +20260,14 @@
         <v>-7078345.42935705</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="J543" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18795,16 +20301,22 @@
         <v>-7074133.37835705</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J544" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L544" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
       <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
@@ -18830,11 +20342,19 @@
         <v>-7080585.41785705</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="J545" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18863,11 +20383,19 @@
         <v>-7073152.10845705</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="J546" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18896,11 +20424,19 @@
         <v>-7128556.46385705</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="J547" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18929,11 +20465,19 @@
         <v>-7124368.80985705</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="J548" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18962,11 +20506,19 @@
         <v>-7129647.83305705</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="J549" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18995,11 +20547,19 @@
         <v>-6932864.106857049</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="J550" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19028,11 +20588,19 @@
         <v>-6882153.94005705</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="J551" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19061,11 +20629,19 @@
         <v>-6690163.89175705</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="J552" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19094,11 +20670,19 @@
         <v>-6716560.861157049</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J553" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19127,11 +20711,19 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="J554" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19160,11 +20752,19 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="J555" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19193,11 +20793,19 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="J556" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19226,11 +20834,19 @@
         <v>-6746021.066857049</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="J557" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19259,11 +20875,19 @@
         <v>-6812789.065657049</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J558" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19292,11 +20916,19 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="J559" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19325,11 +20957,19 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J560" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19358,11 +20998,19 @@
         <v>-6813063.327257049</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J561" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19391,11 +21039,19 @@
         <v>-6821047.07105705</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="J562" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19424,11 +21080,19 @@
         <v>-6848812.563557049</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="J563" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19457,11 +21121,19 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J564" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19490,11 +21162,19 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J565" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19523,11 +21203,19 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J566" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19556,11 +21244,19 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J567" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19589,11 +21285,19 @@
         <v>-6830082.598955642</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J568" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19622,11 +21326,19 @@
         <v>-6461326.478555641</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="J569" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19655,11 +21367,19 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J570" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19688,11 +21408,19 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J571" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19721,11 +21449,19 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J572" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19754,11 +21490,19 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J573" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19787,11 +21531,19 @@
         <v>-5999702.839890135</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J574" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19820,11 +21572,19 @@
         <v>-5876081.351490135</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="J575" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19853,11 +21613,17 @@
         <v>-5897225.983290135</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19886,11 +21652,19 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="J577" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19919,11 +21693,17 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19952,11 +21732,17 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19985,11 +21771,17 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20018,11 +21810,17 @@
         <v>-5917261.983290135</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20051,11 +21849,17 @@
         <v>-5881796.095990135</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20084,11 +21888,17 @@
         <v>-5395745.905990135</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20117,11 +21927,17 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20150,11 +21966,17 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20183,11 +22005,17 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20216,11 +22044,17 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20249,11 +22083,17 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20282,11 +22122,17 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20315,11 +22161,17 @@
         <v>-5371726.889990135</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20348,11 +22200,17 @@
         <v>-5493647.498490135</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20381,11 +22239,17 @@
         <v>-5488452.416990135</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20414,11 +22278,17 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20447,11 +22317,17 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20480,11 +22356,17 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20513,11 +22395,17 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20546,11 +22434,17 @@
         <v>-5698819.781590135</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20579,11 +22473,17 @@
         <v>-5649819.781590135</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20612,11 +22512,17 @@
         <v>-5604501.514890135</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20645,11 +22551,17 @@
         <v>-5625668.209990135</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20678,11 +22590,17 @@
         <v>-5648986.213890135</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20711,11 +22629,17 @@
         <v>-5629799.150490135</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20744,11 +22668,17 @@
         <v>-5757599.252790135</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20777,11 +22707,17 @@
         <v>-5729675.233890136</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20810,11 +22746,17 @@
         <v>-5752372.665690136</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20843,11 +22785,17 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20876,11 +22824,17 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20909,11 +22863,17 @@
         <v>-5786641.435190136</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20942,11 +22902,17 @@
         <v>-5635986.372290135</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20975,11 +22941,17 @@
         <v>-5609353.837690135</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21008,11 +22980,17 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21041,11 +23019,17 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21074,11 +23058,17 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21107,11 +23097,17 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21140,11 +23136,17 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21173,11 +23175,17 @@
         <v>-5720952.914690135</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21206,11 +23214,17 @@
         <v>-5765773.468790135</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21239,11 +23253,17 @@
         <v>-5730833.454590135</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21272,11 +23292,17 @@
         <v>-5703624.274190135</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21305,11 +23331,17 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21338,11 +23370,17 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21371,11 +23409,17 @@
         <v>-5771065.326090136</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21404,11 +23448,17 @@
         <v>-5760797.424490135</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21437,11 +23487,17 @@
         <v>-5776280.432590135</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21470,11 +23526,17 @@
         <v>-5749975.359090135</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21503,11 +23565,17 @@
         <v>-5733050.828790136</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21536,11 +23604,17 @@
         <v>-5766419.546990136</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21569,11 +23643,17 @@
         <v>-5817599.223890136</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21602,11 +23682,17 @@
         <v>-5805431.792490136</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21635,11 +23721,17 @@
         <v>-5790187.149390136</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21668,11 +23760,17 @@
         <v>-5773480.965590136</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21701,11 +23799,17 @@
         <v>-5791528.091590136</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21737,8 +23841,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21767,11 +23877,17 @@
         <v>-5812081.580290136</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21800,11 +23916,17 @@
         <v>-5686669.777790136</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21833,11 +23955,17 @@
         <v>-5740167.541090135</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21866,11 +23994,17 @@
         <v>-5705175.077790136</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21899,11 +24033,17 @@
         <v>-5749910.946190136</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21935,8 +24075,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21968,8 +24114,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22001,8 +24153,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22034,8 +24192,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22067,8 +24231,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22100,8 +24270,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22133,8 +24309,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22166,8 +24348,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22199,8 +24387,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22232,8 +24426,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22265,8 +24465,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22298,8 +24504,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22331,8 +24543,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22364,8 +24582,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22397,8 +24621,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22430,8 +24660,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22463,8 +24699,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22496,8 +24738,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
